--- a/model/Auswertung/mehrspaltiges Layout/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/mehrspaltiges Layout/Ergebnis_Kosmos/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,238 +757,238 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1876</v>
+        <v>740</v>
       </c>
       <c r="B5" t="n">
-        <v>1827</v>
+        <v>738</v>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.033</v>
+        <v>0.0135</v>
       </c>
       <c r="F5" t="n">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="H5" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2459</v>
+        <v>0.0206</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0951</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.871</v>
+        <v>0.9897</v>
       </c>
       <c r="O5" t="n">
-        <v>0.903</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8852</v>
+        <v>0.9897</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0.878</v>
+        <v>0.9897</v>
       </c>
       <c r="S5" t="n">
-        <v>0.949</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9768</v>
+        <v>0.9855</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6691</v>
+        <v>0.9476</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>869</v>
+        <v>1876</v>
       </c>
       <c r="B6" t="n">
-        <v>869</v>
+        <v>1827</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="F6" t="n">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="G6" t="n">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.2459</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.0951</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.871</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.903</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0.8852</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0.878</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0.949</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0.9768</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8195</v>
+        <v>0.6691</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1637</v>
+        <v>869</v>
       </c>
       <c r="B7" t="n">
-        <v>1635</v>
+        <v>869</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="G7" t="n">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0232</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9883999999999999</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9883999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9883999999999999</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9903999999999999</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0.967</v>
+        <v>0.8195</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>766</v>
+        <v>1637</v>
       </c>
       <c r="B8" t="n">
-        <v>764</v>
+        <v>1635</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0078</v>
+        <v>0.0031</v>
       </c>
       <c r="F8" t="n">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="G8" t="n">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -997,39 +997,109 @@
         <v>3</v>
       </c>
       <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0232</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>766</v>
+      </c>
+      <c r="B9" t="n">
+        <v>764</v>
+      </c>
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="F9" t="n">
+        <v>129</v>
+      </c>
+      <c r="G9" t="n">
+        <v>125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.0543</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M9" t="n">
         <v>0.0155</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N9" t="n">
         <v>0.9766</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O9" t="n">
         <v>0.9921</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>0.969</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>0.9921</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R9" t="n">
         <v>0.9728</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>0.9921</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>0.9609</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U9" t="n">
         <v>0.8569</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
